--- a/REGULAR/RE-ENCODE/TORRES, SONIA.xlsx
+++ b/REGULAR/RE-ENCODE/TORRES, SONIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96AEA21-FAA0-4C2A-8766-030CD0A19751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="240">
   <si>
     <t>PERIOD</t>
   </si>
@@ -750,12 +751,15 @@
   </si>
   <si>
     <t>UT(1-5-36)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1161,9 +1165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,7 +1426,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1441,25 +1443,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1766,34 +1768,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A280" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="B282" sqref="B282"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1814,7 +1816,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1832,7 +1834,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1854,7 +1856,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1862,7 +1864,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1875,7 +1877,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -1892,7 +1894,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1936,7 +1938,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>322.61399999999998</v>
+        <v>262.61399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1951,7 +1953,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>78</v>
       </c>
@@ -1973,8 +1975,8 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>34335</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1999,8 +2001,8 @@
         <v>34347</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>103</v>
       </c>
@@ -2021,8 +2023,8 @@
         <v>34354</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
       </c>
@@ -2043,8 +2045,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>34366</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -2069,8 +2071,8 @@
         <v>34367</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
       </c>
@@ -2089,8 +2091,8 @@
         <v>34380</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>34394</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -2115,8 +2117,8 @@
         <v>34422</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>74</v>
       </c>
@@ -2137,8 +2139,8 @@
         <v>34395</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>105</v>
       </c>
@@ -2157,8 +2159,8 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>34425</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2183,8 +2185,8 @@
         <v>34449</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2207,8 @@
         <v>34442</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>74</v>
       </c>
@@ -2227,8 +2229,8 @@
         <v>34446</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="60">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
         <v>34455</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2253,8 +2255,8 @@
         <v>34456</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>103</v>
       </c>
@@ -2275,8 +2277,8 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>70</v>
       </c>
@@ -2297,8 +2299,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
       </c>
@@ -2319,8 +2321,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>106</v>
       </c>
@@ -2339,8 +2341,8 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
         <v>34486</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -2365,8 +2367,8 @@
         <v>34487</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>106</v>
       </c>
@@ -2385,8 +2387,8 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="60">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
         <v>34516</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -2409,8 +2411,8 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="60">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>34547</v>
       </c>
       <c r="B30" s="20"/>
@@ -2429,8 +2431,8 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="60">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
         <v>34578</v>
       </c>
       <c r="B31" s="20"/>
@@ -2449,8 +2451,8 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="60">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
         <v>34608</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -2475,8 +2477,8 @@
         <v>34631</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>103</v>
       </c>
@@ -2497,8 +2499,8 @@
         <v>34634</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="60">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
         <v>34639</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -2523,8 +2525,8 @@
         <v>34654</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>103</v>
       </c>
@@ -2545,8 +2547,8 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="60">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
         <v>34669</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -2571,8 +2573,8 @@
         <v>34689</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>103</v>
       </c>
@@ -2593,8 +2595,8 @@
         <v>34691</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>103</v>
       </c>
@@ -2615,8 +2617,8 @@
         <v>34694</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>110</v>
       </c>
@@ -2635,7 +2637,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>79</v>
       </c>
@@ -2653,8 +2655,8 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="60">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
         <v>34700</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -2679,8 +2681,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
       </c>
@@ -2701,8 +2703,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>103</v>
       </c>
@@ -2723,8 +2725,8 @@
         <v>34718</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>112</v>
       </c>
@@ -2743,8 +2745,8 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="60">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
         <v>34731</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -2769,8 +2771,8 @@
         <v>34754</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="60">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
         <v>34759</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -2795,8 +2797,8 @@
         <v>34782</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>116</v>
       </c>
@@ -2815,8 +2817,8 @@
       <c r="J47" s="11"/>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="60">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
         <v>34790</v>
       </c>
       <c r="B48" s="20"/>
@@ -2835,8 +2837,8 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="60">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
         <v>34820</v>
       </c>
       <c r="B49" s="20"/>
@@ -2855,8 +2857,8 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="60">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
         <v>34851</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -2881,8 +2883,8 @@
         <v>34866</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>117</v>
       </c>
@@ -2901,8 +2903,8 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="60">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
         <v>34881</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -2927,8 +2929,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>109</v>
       </c>
@@ -2947,8 +2949,8 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="60">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
         <v>34912</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -2973,8 +2975,8 @@
         <v>34929</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>119</v>
       </c>
@@ -2993,8 +2995,8 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="60">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
         <v>34943</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -3017,8 +3019,8 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>48</v>
       </c>
@@ -3039,8 +3041,8 @@
         <v>34967</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="60">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="23">
         <v>34973</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -3065,8 +3067,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="60">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
         <v>35004</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -3089,8 +3091,8 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
         <v>35034</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -3115,8 +3117,8 @@
         <v>35052</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>103</v>
       </c>
@@ -3137,8 +3139,8 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>103</v>
       </c>
@@ -3159,8 +3161,8 @@
         <v>35045</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>103</v>
       </c>
@@ -3181,8 +3183,8 @@
         <v>35054</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>123</v>
       </c>
@@ -3201,7 +3203,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>80</v>
       </c>
@@ -3219,8 +3221,8 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="60">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
         <v>35065</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -3243,8 +3245,8 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="60">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
         <v>35096</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -3269,8 +3271,8 @@
         <v>35117</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>103</v>
       </c>
@@ -3291,8 +3293,8 @@
         <v>35123</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="60">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
         <v>35125</v>
       </c>
       <c r="B69" s="20" t="s">
@@ -3317,8 +3319,8 @@
         <v>35151</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="60">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
         <v>35156</v>
       </c>
       <c r="B70" s="20"/>
@@ -3337,8 +3339,8 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="60">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="23">
         <v>35186</v>
       </c>
       <c r="B71" s="20" t="s">
@@ -3361,8 +3363,8 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>70</v>
       </c>
@@ -3383,8 +3385,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="60">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="23">
         <v>35217</v>
       </c>
       <c r="B73" s="20"/>
@@ -3403,8 +3405,8 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="60">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="23">
         <v>35247</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -3427,8 +3429,8 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="60">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="23">
         <v>35278</v>
       </c>
       <c r="B75" s="20" t="s">
@@ -3453,8 +3455,8 @@
         <v>35293</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="60">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="23">
         <v>35309</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -3475,8 +3477,8 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="60">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="23">
         <v>35339</v>
       </c>
       <c r="B77" s="20"/>
@@ -3495,8 +3497,8 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="60">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="23">
         <v>35370</v>
       </c>
       <c r="B78" s="20"/>
@@ -3515,8 +3517,8 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="60">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="23">
         <v>35400</v>
       </c>
       <c r="B79" s="20" t="s">
@@ -3541,8 +3543,8 @@
         <v>35418</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>128</v>
       </c>
@@ -3561,7 +3563,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>81</v>
       </c>
@@ -3579,8 +3581,8 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="60">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="23">
         <v>35431</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -3603,8 +3605,8 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="60">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="23">
         <v>35462</v>
       </c>
       <c r="B83" s="20"/>
@@ -3623,8 +3625,8 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="60">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="23">
         <v>35490</v>
       </c>
       <c r="B84" s="20" t="s">
@@ -3649,8 +3651,8 @@
         <v>35507</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="60"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>129</v>
       </c>
@@ -3669,8 +3671,8 @@
       <c r="J85" s="11"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="60">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="23">
         <v>35521</v>
       </c>
       <c r="B86" s="20"/>
@@ -3689,8 +3691,8 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="60">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="23">
         <v>35551</v>
       </c>
       <c r="B87" s="20"/>
@@ -3709,8 +3711,8 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="60">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="23">
         <v>35582</v>
       </c>
       <c r="B88" s="20" t="s">
@@ -3735,8 +3737,8 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="60"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
       </c>
@@ -3755,8 +3757,8 @@
         <v>35583</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="60">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="23">
         <v>35612</v>
       </c>
       <c r="B90" s="20" t="s">
@@ -3781,8 +3783,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="60"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
       </c>
@@ -3803,8 +3805,8 @@
         <v>35626</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="60">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="23">
         <v>35643</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -3825,8 +3827,8 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="60">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="23">
         <v>35674</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -3849,8 +3851,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="60"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>49</v>
       </c>
@@ -3871,8 +3873,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="60"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>103</v>
       </c>
@@ -3893,8 +3895,8 @@
         <v>35677</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="60"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>103</v>
       </c>
@@ -3915,8 +3917,8 @@
         <v>35684</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="60"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
       </c>
@@ -3937,8 +3939,8 @@
         <v>35696</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="60"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>132</v>
       </c>
@@ -3957,8 +3959,8 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="60">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="23">
         <v>35704</v>
       </c>
       <c r="B99" s="20" t="s">
@@ -3983,8 +3985,8 @@
         <v>35734</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="60"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>103</v>
       </c>
@@ -4005,8 +4007,8 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="60"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>103</v>
       </c>
@@ -4027,8 +4029,8 @@
         <v>35733</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="60"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>134</v>
       </c>
@@ -4047,8 +4049,8 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="60">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="23">
         <v>35735</v>
       </c>
       <c r="B103" s="20" t="s">
@@ -4073,8 +4075,8 @@
         <v>35746</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="60"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>135</v>
       </c>
@@ -4093,8 +4095,8 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="60">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="23">
         <v>35765</v>
       </c>
       <c r="B105" s="20" t="s">
@@ -4119,8 +4121,8 @@
         <v>35787</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="60"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>136</v>
       </c>
@@ -4139,7 +4141,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="47" t="s">
         <v>82</v>
       </c>
@@ -4157,8 +4159,8 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="60">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="23">
         <v>35796</v>
       </c>
       <c r="B108" s="20" t="s">
@@ -4183,8 +4185,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="60"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>138</v>
       </c>
@@ -4203,8 +4205,8 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="60">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="23">
         <v>35827</v>
       </c>
       <c r="B110" s="20" t="s">
@@ -4229,8 +4231,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="60"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>74</v>
       </c>
@@ -4251,8 +4253,8 @@
         <v>35853</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="60"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>128</v>
       </c>
@@ -4271,8 +4273,8 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="60">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="23">
         <v>35855</v>
       </c>
       <c r="B113" s="20" t="s">
@@ -4295,8 +4297,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="60"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
       </c>
@@ -4317,8 +4319,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="60"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>142</v>
       </c>
@@ -4337,8 +4339,8 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="60">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="23">
         <v>35886</v>
       </c>
       <c r="B116" s="20" t="s">
@@ -4363,8 +4365,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="60"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>103</v>
       </c>
@@ -4385,8 +4387,8 @@
         <v>35905</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="60"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>144</v>
       </c>
@@ -4405,8 +4407,8 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="60">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="23">
         <v>35916</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -4431,8 +4433,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="60"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>111</v>
       </c>
@@ -4453,8 +4455,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="60"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>112</v>
       </c>
@@ -4473,8 +4475,8 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="60">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="23">
         <v>35947</v>
       </c>
       <c r="B122" s="20" t="s">
@@ -4499,8 +4501,8 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="60"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>45</v>
       </c>
@@ -4519,8 +4521,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="60"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>45</v>
       </c>
@@ -4539,8 +4541,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="60"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>148</v>
       </c>
@@ -4559,8 +4561,8 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="60">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="23">
         <v>35977</v>
       </c>
       <c r="B126" s="20" t="s">
@@ -4585,8 +4587,8 @@
         <v>36005</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="60"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>144</v>
       </c>
@@ -4605,8 +4607,8 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="60">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="23">
         <v>36008</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -4629,8 +4631,8 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="60">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="23">
         <v>36039</v>
       </c>
       <c r="B129" s="20" t="s">
@@ -4653,8 +4655,8 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="60">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="23">
         <v>36069</v>
       </c>
       <c r="B130" s="20"/>
@@ -4673,8 +4675,8 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="60">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="23">
         <v>36100</v>
       </c>
       <c r="B131" s="20" t="s">
@@ -4697,8 +4699,8 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="60">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="23">
         <v>36130</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -4721,7 +4723,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
         <v>83</v>
       </c>
@@ -4739,8 +4741,8 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="60">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="23">
         <v>36161</v>
       </c>
       <c r="B134" s="20" t="s">
@@ -4765,8 +4767,8 @@
         <v>36181</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="60"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>155</v>
       </c>
@@ -4785,8 +4787,8 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="60">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="23">
         <v>36192</v>
       </c>
       <c r="B136" s="20" t="s">
@@ -4809,8 +4811,8 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="60">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="23">
         <v>36220</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -4833,8 +4835,8 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="60">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="23">
         <v>36251</v>
       </c>
       <c r="B138" s="20" t="s">
@@ -4859,8 +4861,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="60"/>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>109</v>
       </c>
@@ -4879,8 +4881,8 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="60">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="23">
         <v>36281</v>
       </c>
       <c r="B140" s="20" t="s">
@@ -4905,8 +4907,8 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="60"/>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>111</v>
       </c>
@@ -4927,8 +4929,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="60"/>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>159</v>
       </c>
@@ -4947,8 +4949,8 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="60">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="23">
         <v>36312</v>
       </c>
       <c r="B143" s="20" t="s">
@@ -4971,8 +4973,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="60"/>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>48</v>
       </c>
@@ -4993,8 +4995,8 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="60">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="23">
         <v>36342</v>
       </c>
       <c r="B145" s="20" t="s">
@@ -5019,8 +5021,8 @@
         <v>36360</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="60"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>162</v>
       </c>
@@ -5039,8 +5041,8 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="60">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="23">
         <v>36373</v>
       </c>
       <c r="B147" s="20" t="s">
@@ -5065,8 +5067,8 @@
         <v>36399</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="60"/>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>124</v>
       </c>
@@ -5085,8 +5087,8 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="60">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="23">
         <v>36404</v>
       </c>
       <c r="B149" s="20" t="s">
@@ -5111,8 +5113,8 @@
         <v>36413</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="60"/>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
       </c>
@@ -5133,8 +5135,8 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="60"/>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>124</v>
       </c>
@@ -5153,8 +5155,8 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="60">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="23">
         <v>36434</v>
       </c>
       <c r="B152" s="20" t="s">
@@ -5179,8 +5181,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="60"/>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>48</v>
       </c>
@@ -5201,8 +5203,8 @@
         <v>36454</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="60"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>163</v>
       </c>
@@ -5221,8 +5223,8 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="60">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="23">
         <v>36465</v>
       </c>
       <c r="B155" s="20" t="s">
@@ -5247,8 +5249,8 @@
         <v>36483</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="60"/>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
       </c>
@@ -5267,8 +5269,8 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="60">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="23">
         <v>36495</v>
       </c>
       <c r="B157" s="20" t="s">
@@ -5293,8 +5295,8 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="60"/>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>166</v>
       </c>
@@ -5313,7 +5315,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>84</v>
       </c>
@@ -5331,8 +5333,8 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="60">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="23">
         <v>36526</v>
       </c>
       <c r="B160" s="20" t="s">
@@ -5357,8 +5359,8 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="60"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>123</v>
       </c>
@@ -5377,8 +5379,8 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="60">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="23">
         <v>36557</v>
       </c>
       <c r="B162" s="20" t="s">
@@ -5403,8 +5405,8 @@
         <v>36584</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="60"/>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>45</v>
       </c>
@@ -5423,8 +5425,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="60"/>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>168</v>
       </c>
@@ -5443,8 +5445,8 @@
       <c r="J164" s="11"/>
       <c r="K164" s="48"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="60">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="23">
         <v>36586</v>
       </c>
       <c r="B165" s="20" t="s">
@@ -5467,8 +5469,8 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="60">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="23">
         <v>36617</v>
       </c>
       <c r="B166" s="20" t="s">
@@ -5491,8 +5493,8 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="60">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="23">
         <v>36647</v>
       </c>
       <c r="B167" s="20" t="s">
@@ -5517,8 +5519,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="60"/>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
       </c>
@@ -5537,8 +5539,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="60"/>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>172</v>
       </c>
@@ -5557,8 +5559,8 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="60">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="23">
         <v>36678</v>
       </c>
       <c r="B170" s="20" t="s">
@@ -5583,8 +5585,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="60"/>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
       </c>
@@ -5605,8 +5607,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="60"/>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>173</v>
       </c>
@@ -5625,8 +5627,8 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="60">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="23">
         <v>36708</v>
       </c>
       <c r="B173" s="20" t="s">
@@ -5649,8 +5651,8 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="60">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="23">
         <v>36739</v>
       </c>
       <c r="B174" s="20" t="s">
@@ -5673,8 +5675,8 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="60">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="23">
         <v>36770</v>
       </c>
       <c r="B175" s="20" t="s">
@@ -5697,8 +5699,8 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="60">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="23">
         <v>36800</v>
       </c>
       <c r="B176" s="20" t="s">
@@ -5723,8 +5725,8 @@
         <v>36825</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="60"/>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>177</v>
       </c>
@@ -5743,8 +5745,8 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="60">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="23">
         <v>36831</v>
       </c>
       <c r="B178" s="20" t="s">
@@ -5767,8 +5769,8 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="60">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="23">
         <v>36861</v>
       </c>
       <c r="B179" s="20" t="s">
@@ -5791,8 +5793,8 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="60"/>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>178</v>
       </c>
@@ -5811,7 +5813,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="47" t="s">
         <v>85</v>
       </c>
@@ -5829,8 +5831,8 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="60">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="23">
         <v>36892</v>
       </c>
       <c r="B182" s="20" t="s">
@@ -5855,8 +5857,8 @@
         <v>36906</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="60"/>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>45</v>
       </c>
@@ -5875,8 +5877,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="60"/>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>179</v>
       </c>
@@ -5895,8 +5897,8 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="60">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="23">
         <v>36923</v>
       </c>
       <c r="B185" s="20" t="s">
@@ -5919,8 +5921,8 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="60">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="23">
         <v>36951</v>
       </c>
       <c r="B186" s="20" t="s">
@@ -5945,8 +5947,8 @@
         <v>36955</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="60"/>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>182</v>
       </c>
@@ -5965,8 +5967,8 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="60">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="23">
         <v>36982</v>
       </c>
       <c r="B188" s="20" t="s">
@@ -5991,8 +5993,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="60"/>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>183</v>
       </c>
@@ -6011,8 +6013,8 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="60">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="23">
         <v>37012</v>
       </c>
       <c r="B190" s="20" t="s">
@@ -6037,8 +6039,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="60"/>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>48</v>
       </c>
@@ -6059,8 +6061,8 @@
         <v>37026</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="60"/>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>70</v>
       </c>
@@ -6081,8 +6083,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="60"/>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>185</v>
       </c>
@@ -6101,8 +6103,8 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="60">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="23">
         <v>37043</v>
       </c>
       <c r="B194" s="20" t="s">
@@ -6125,8 +6127,8 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="60">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="23">
         <v>37073</v>
       </c>
       <c r="B195" s="20" t="s">
@@ -6149,8 +6151,8 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="60">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="23">
         <v>37104</v>
       </c>
       <c r="B196" s="20" t="s">
@@ -6175,8 +6177,8 @@
         <v>37118</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="60"/>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>159</v>
       </c>
@@ -6195,8 +6197,8 @@
       <c r="J197" s="11"/>
       <c r="K197" s="48"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="60">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="23">
         <v>37135</v>
       </c>
       <c r="B198" s="20" t="s">
@@ -6219,8 +6221,8 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="60">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="23">
         <v>37165</v>
       </c>
       <c r="B199" s="20" t="s">
@@ -6243,8 +6245,8 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="60">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="23">
         <v>37196</v>
       </c>
       <c r="B200" s="20" t="s">
@@ -6269,8 +6271,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="60"/>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>45</v>
       </c>
@@ -6289,8 +6291,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="60"/>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>119</v>
       </c>
@@ -6309,8 +6311,8 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="60">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="23">
         <v>37226</v>
       </c>
       <c r="B203" s="20" t="s">
@@ -6335,8 +6337,8 @@
         <v>37240</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="60"/>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>195</v>
       </c>
@@ -6355,7 +6357,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="48"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>86</v>
       </c>
@@ -6373,8 +6375,8 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="60">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="23">
         <v>37257</v>
       </c>
       <c r="B206" s="20" t="s">
@@ -6397,8 +6399,8 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="60">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="23">
         <v>37288</v>
       </c>
       <c r="B207" s="20" t="s">
@@ -6421,8 +6423,8 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="60">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="23">
         <v>37316</v>
       </c>
       <c r="B208" s="20" t="s">
@@ -6445,8 +6447,8 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="60">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="23">
         <v>37347</v>
       </c>
       <c r="B209" s="20" t="s">
@@ -6469,8 +6471,8 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="60">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="23">
         <v>37377</v>
       </c>
       <c r="B210" s="20" t="s">
@@ -6493,8 +6495,8 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="60">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="23">
         <v>37408</v>
       </c>
       <c r="B211" s="20" t="s">
@@ -6517,8 +6519,8 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="60">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="23">
         <v>37438</v>
       </c>
       <c r="B212" s="20" t="s">
@@ -6543,8 +6545,8 @@
         <v>37455</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="60"/>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>198</v>
       </c>
@@ -6563,8 +6565,8 @@
       <c r="J213" s="11"/>
       <c r="K213" s="48"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="60">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="23">
         <v>37469</v>
       </c>
       <c r="B214" s="20"/>
@@ -6583,8 +6585,8 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="60">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="23">
         <v>37500</v>
       </c>
       <c r="B215" s="20" t="s">
@@ -6609,8 +6611,8 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="60"/>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>49</v>
       </c>
@@ -6631,8 +6633,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="60">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="23">
         <v>37530</v>
       </c>
       <c r="B217" s="20" t="s">
@@ -6655,8 +6657,8 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="60">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="23">
         <v>37561</v>
       </c>
       <c r="B218" s="20" t="s">
@@ -6681,8 +6683,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="60"/>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>155</v>
       </c>
@@ -6701,8 +6703,8 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="60">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="23">
         <v>37591</v>
       </c>
       <c r="B220" s="20" t="s">
@@ -6725,7 +6727,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="47" t="s">
         <v>87</v>
       </c>
@@ -6743,8 +6745,8 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="60">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="23">
         <v>37622</v>
       </c>
       <c r="B222" s="20" t="s">
@@ -6767,8 +6769,8 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="60">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="23">
         <v>37653</v>
       </c>
       <c r="B223" s="20"/>
@@ -6787,8 +6789,8 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="60">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="23">
         <v>37681</v>
       </c>
       <c r="B224" s="20" t="s">
@@ -6811,8 +6813,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="60"/>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>45</v>
       </c>
@@ -6831,8 +6833,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="60">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="23">
         <v>37712</v>
       </c>
       <c r="B226" s="20"/>
@@ -6851,8 +6853,8 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="60">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="23">
         <v>37742</v>
       </c>
       <c r="B227" s="20" t="s">
@@ -6877,8 +6879,8 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="60">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="23">
         <v>37773</v>
       </c>
       <c r="B228" s="20" t="s">
@@ -6901,8 +6903,8 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="60">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="23">
         <v>37803</v>
       </c>
       <c r="B229" s="20" t="s">
@@ -6925,8 +6927,8 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="60">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="23">
         <v>37834</v>
       </c>
       <c r="B230" s="20" t="s">
@@ -6949,8 +6951,8 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="60">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="23">
         <v>37865</v>
       </c>
       <c r="B231" s="20" t="s">
@@ -6973,8 +6975,8 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="60">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="23">
         <v>37895</v>
       </c>
       <c r="B232" s="20" t="s">
@@ -6999,8 +7001,8 @@
         <v>37917</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="60"/>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>45</v>
       </c>
@@ -7019,8 +7021,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="60"/>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>168</v>
       </c>
@@ -7039,8 +7041,8 @@
       <c r="J234" s="11"/>
       <c r="K234" s="48"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="60">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="23">
         <v>37926</v>
       </c>
       <c r="B235" s="20" t="s">
@@ -7065,8 +7067,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="60"/>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>112</v>
       </c>
@@ -7085,8 +7087,8 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="60">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="23">
         <v>37956</v>
       </c>
       <c r="B237" s="20" t="s">
@@ -7109,8 +7111,8 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="60"/>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>211</v>
       </c>
@@ -7129,7 +7131,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="47" t="s">
         <v>88</v>
       </c>
@@ -7147,8 +7149,8 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="60">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="23">
         <v>37987</v>
       </c>
       <c r="B240" s="20"/>
@@ -7167,8 +7169,8 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="60">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="23">
         <v>38018</v>
       </c>
       <c r="B241" s="20" t="s">
@@ -7193,8 +7195,8 @@
         <v>38043</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="60"/>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>212</v>
       </c>
@@ -7213,8 +7215,8 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="60">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="23">
         <v>38047</v>
       </c>
       <c r="B243" s="20" t="s">
@@ -7239,8 +7241,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="60"/>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>191</v>
       </c>
@@ -7259,8 +7261,8 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="60">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="23">
         <v>38078</v>
       </c>
       <c r="B245" s="20" t="s">
@@ -7285,8 +7287,8 @@
         <v>38089</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="60"/>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>49</v>
       </c>
@@ -7307,8 +7309,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="60"/>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>214</v>
       </c>
@@ -7327,8 +7329,8 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="60">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="23">
         <v>38108</v>
       </c>
       <c r="B248" s="20" t="s">
@@ -7353,8 +7355,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="60"/>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>48</v>
       </c>
@@ -7375,8 +7377,8 @@
         <v>38128</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="60"/>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>217</v>
       </c>
@@ -7395,8 +7397,8 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="60">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="23">
         <v>38139</v>
       </c>
       <c r="B251" s="20" t="s">
@@ -7419,8 +7421,8 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="60">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="23">
         <v>38169</v>
       </c>
       <c r="B252" s="20" t="s">
@@ -7445,8 +7447,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="60">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="23">
         <v>38200</v>
       </c>
       <c r="B253" s="20" t="s">
@@ -7469,8 +7471,8 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="60">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="23">
         <v>38231</v>
       </c>
       <c r="B254" s="20" t="s">
@@ -7493,8 +7495,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="60"/>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>221</v>
       </c>
@@ -7513,8 +7515,8 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="60">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="23">
         <v>38261</v>
       </c>
       <c r="B256" s="20" t="s">
@@ -7537,8 +7539,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="60"/>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>223</v>
       </c>
@@ -7557,8 +7559,8 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="60">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="23">
         <v>38292</v>
       </c>
       <c r="B258" s="20" t="s">
@@ -7581,8 +7583,8 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="60">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="23">
         <v>38322</v>
       </c>
       <c r="B259" s="20" t="s">
@@ -7605,7 +7607,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="47" t="s">
         <v>89</v>
       </c>
@@ -7623,8 +7625,8 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="60">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="23">
         <v>38353</v>
       </c>
       <c r="B261" s="20" t="s">
@@ -7647,8 +7649,8 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="60">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="23">
         <v>38384</v>
       </c>
       <c r="B262" s="20" t="s">
@@ -7673,8 +7675,8 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="60"/>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>156</v>
       </c>
@@ -7693,8 +7695,8 @@
       <c r="J263" s="11"/>
       <c r="K263" s="48"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="60">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="23">
         <v>38412</v>
       </c>
       <c r="B264" s="20" t="s">
@@ -7719,8 +7721,8 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="60"/>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>227</v>
       </c>
@@ -7739,8 +7741,8 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="60">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="23">
         <v>38443</v>
       </c>
       <c r="B266" s="20" t="s">
@@ -7763,8 +7765,8 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="60">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="23">
         <v>38473</v>
       </c>
       <c r="B267" s="20" t="s">
@@ -7787,8 +7789,8 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="60"/>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
       </c>
@@ -7807,8 +7809,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="60">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="23">
         <v>38504</v>
       </c>
       <c r="B269" s="20" t="s">
@@ -7833,8 +7835,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="60"/>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>105</v>
       </c>
@@ -7853,8 +7855,8 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="60">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="23">
         <v>38534</v>
       </c>
       <c r="B271" s="20" t="s">
@@ -7877,8 +7879,8 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="60">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="23">
         <v>38565</v>
       </c>
       <c r="B272" s="20" t="s">
@@ -7901,8 +7903,8 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="60">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="23">
         <v>38596</v>
       </c>
       <c r="B273" s="20" t="s">
@@ -7927,8 +7929,8 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="60"/>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>45</v>
       </c>
@@ -7947,8 +7949,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="60"/>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>234</v>
       </c>
@@ -7967,8 +7969,8 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="60">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="23">
         <v>38626</v>
       </c>
       <c r="B276" s="20" t="s">
@@ -7993,8 +7995,8 @@
         <v>38642</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="60"/>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>64</v>
       </c>
@@ -8013,8 +8015,8 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="60"/>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>236</v>
       </c>
@@ -8033,8 +8035,8 @@
       <c r="J278" s="11"/>
       <c r="K278" s="48"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="60">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="23">
         <v>38657</v>
       </c>
       <c r="B279" s="20" t="s">
@@ -8057,8 +8059,8 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="60">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="23">
         <v>38687</v>
       </c>
       <c r="B280" s="20" t="s">
@@ -8081,7 +8083,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="47" t="s">
         <v>90</v>
       </c>
@@ -8099,8 +8101,8 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="60">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="23">
         <v>38718</v>
       </c>
       <c r="B282" s="20"/>
@@ -8119,8 +8121,8 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="60">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="23">
         <v>38749</v>
       </c>
       <c r="B283" s="20"/>
@@ -8139,8 +8141,8 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="60">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="23">
         <v>38777</v>
       </c>
       <c r="B284" s="20"/>
@@ -8159,8 +8161,8 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="60">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="23">
         <v>38808</v>
       </c>
       <c r="B285" s="20"/>
@@ -8179,8 +8181,8 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="60">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="23">
         <v>38838</v>
       </c>
       <c r="B286" s="20"/>
@@ -8199,8 +8201,8 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="60">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="23">
         <v>38869</v>
       </c>
       <c r="B287" s="20"/>
@@ -8219,8 +8221,8 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="60">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="23">
         <v>38899</v>
       </c>
       <c r="B288" s="20"/>
@@ -8239,8 +8241,8 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="60">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="23">
         <v>38930</v>
       </c>
       <c r="B289" s="20"/>
@@ -8259,8 +8261,8 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="60">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="23">
         <v>38961</v>
       </c>
       <c r="B290" s="20"/>
@@ -8279,8 +8281,8 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="60">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="23">
         <v>38991</v>
       </c>
       <c r="B291" s="20"/>
@@ -8299,8 +8301,8 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="60">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="23">
         <v>39022</v>
       </c>
       <c r="B292" s="20"/>
@@ -8319,15 +8321,19 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="60">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="23">
         <v>39052</v>
       </c>
-      <c r="B293" s="20"/>
+      <c r="B293" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C293" s="13">
         <v>1.25</v>
       </c>
-      <c r="D293" s="39"/>
+      <c r="D293" s="39">
+        <v>5</v>
+      </c>
       <c r="E293" s="34"/>
       <c r="F293" s="20"/>
       <c r="G293" s="13">
@@ -8339,7 +8345,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="47" t="s">
         <v>91</v>
       </c>
@@ -8357,8 +8363,8 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="60">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="23">
         <v>39083</v>
       </c>
       <c r="B295" s="20"/>
@@ -8377,8 +8383,8 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="60">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="23">
         <v>39114</v>
       </c>
       <c r="B296" s="20"/>
@@ -8397,8 +8403,8 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="60">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="23">
         <v>39142</v>
       </c>
       <c r="B297" s="20"/>
@@ -8417,8 +8423,8 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="60">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="23">
         <v>39173</v>
       </c>
       <c r="B298" s="20"/>
@@ -8437,8 +8443,8 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="60">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="23">
         <v>39203</v>
       </c>
       <c r="B299" s="20"/>
@@ -8457,8 +8463,8 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="60">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="23">
         <v>39234</v>
       </c>
       <c r="B300" s="20"/>
@@ -8477,8 +8483,8 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="60">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="23">
         <v>39264</v>
       </c>
       <c r="B301" s="20"/>
@@ -8497,8 +8503,8 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="60">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="23">
         <v>39295</v>
       </c>
       <c r="B302" s="20"/>
@@ -8517,8 +8523,8 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="60">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="23">
         <v>39326</v>
       </c>
       <c r="B303" s="20"/>
@@ -8537,8 +8543,8 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="60">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="23">
         <v>39356</v>
       </c>
       <c r="B304" s="20"/>
@@ -8557,8 +8563,8 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="60">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="23">
         <v>39387</v>
       </c>
       <c r="B305" s="20"/>
@@ -8577,15 +8583,19 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="60">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="23">
         <v>39417</v>
       </c>
-      <c r="B306" s="20"/>
+      <c r="B306" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C306" s="13">
         <v>1.25</v>
       </c>
-      <c r="D306" s="39"/>
+      <c r="D306" s="39">
+        <v>5</v>
+      </c>
       <c r="E306" s="34"/>
       <c r="F306" s="20"/>
       <c r="G306" s="13">
@@ -8597,7 +8607,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="47" t="s">
         <v>92</v>
       </c>
@@ -8615,8 +8625,8 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="60">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="23">
         <v>39448</v>
       </c>
       <c r="B308" s="20"/>
@@ -8635,8 +8645,8 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="60">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="23">
         <v>39479</v>
       </c>
       <c r="B309" s="20"/>
@@ -8655,8 +8665,8 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="60">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="23">
         <v>39508</v>
       </c>
       <c r="B310" s="20"/>
@@ -8675,8 +8685,8 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="60">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="23">
         <v>39539</v>
       </c>
       <c r="B311" s="20"/>
@@ -8695,8 +8705,8 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="60">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="23">
         <v>39569</v>
       </c>
       <c r="B312" s="20"/>
@@ -8715,8 +8725,8 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="60">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="23">
         <v>39600</v>
       </c>
       <c r="B313" s="20"/>
@@ -8735,8 +8745,8 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="60">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="23">
         <v>39630</v>
       </c>
       <c r="B314" s="20"/>
@@ -8755,8 +8765,8 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="60">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="23">
         <v>39661</v>
       </c>
       <c r="B315" s="20"/>
@@ -8775,8 +8785,8 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="60">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="23">
         <v>39692</v>
       </c>
       <c r="B316" s="20"/>
@@ -8795,8 +8805,8 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="60">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="23">
         <v>39722</v>
       </c>
       <c r="B317" s="20"/>
@@ -8815,8 +8825,8 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="60">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="23">
         <v>39753</v>
       </c>
       <c r="B318" s="20"/>
@@ -8835,15 +8845,19 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="60">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="23">
         <v>39783</v>
       </c>
-      <c r="B319" s="20"/>
+      <c r="B319" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C319" s="13">
         <v>1.25</v>
       </c>
-      <c r="D319" s="39"/>
+      <c r="D319" s="39">
+        <v>5</v>
+      </c>
       <c r="E319" s="34"/>
       <c r="F319" s="20"/>
       <c r="G319" s="13">
@@ -8855,7 +8869,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="47" t="s">
         <v>93</v>
       </c>
@@ -8873,8 +8887,8 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="60">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="23">
         <v>39814</v>
       </c>
       <c r="B321" s="20"/>
@@ -8893,8 +8907,8 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="60">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="23">
         <v>39845</v>
       </c>
       <c r="B322" s="20"/>
@@ -8913,8 +8927,8 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="60">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="23">
         <v>39873</v>
       </c>
       <c r="B323" s="20"/>
@@ -8933,8 +8947,8 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="60">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="23">
         <v>39904</v>
       </c>
       <c r="B324" s="20"/>
@@ -8953,8 +8967,8 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="60">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="23">
         <v>39934</v>
       </c>
       <c r="B325" s="20"/>
@@ -8973,8 +8987,8 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" s="60">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="23">
         <v>39965</v>
       </c>
       <c r="B326" s="20"/>
@@ -8993,8 +9007,8 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="60">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="23">
         <v>39995</v>
       </c>
       <c r="B327" s="20"/>
@@ -9013,8 +9027,8 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="60">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="23">
         <v>40026</v>
       </c>
       <c r="B328" s="20"/>
@@ -9033,8 +9047,8 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="60">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="23">
         <v>40057</v>
       </c>
       <c r="B329" s="20"/>
@@ -9053,8 +9067,8 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="60">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="23">
         <v>40087</v>
       </c>
       <c r="B330" s="20"/>
@@ -9073,8 +9087,8 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="60">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="23">
         <v>40118</v>
       </c>
       <c r="B331" s="20"/>
@@ -9093,15 +9107,19 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="60">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="23">
         <v>40148</v>
       </c>
-      <c r="B332" s="20"/>
+      <c r="B332" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C332" s="13">
         <v>1.25</v>
       </c>
-      <c r="D332" s="39"/>
+      <c r="D332" s="39">
+        <v>5</v>
+      </c>
       <c r="E332" s="34"/>
       <c r="F332" s="20"/>
       <c r="G332" s="13">
@@ -9113,7 +9131,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="47" t="s">
         <v>94</v>
       </c>
@@ -9131,8 +9149,8 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="60">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="23">
         <v>40179</v>
       </c>
       <c r="B334" s="20"/>
@@ -9151,8 +9169,8 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="60">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="23">
         <v>40210</v>
       </c>
       <c r="B335" s="20"/>
@@ -9171,8 +9189,8 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="60">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="23">
         <v>40238</v>
       </c>
       <c r="B336" s="20"/>
@@ -9191,8 +9209,8 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="60">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="23">
         <v>40269</v>
       </c>
       <c r="B337" s="20"/>
@@ -9211,8 +9229,8 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="60">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="23">
         <v>40299</v>
       </c>
       <c r="B338" s="20"/>
@@ -9231,8 +9249,8 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="60">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="23">
         <v>40330</v>
       </c>
       <c r="B339" s="20"/>
@@ -9251,8 +9269,8 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="60">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="23">
         <v>40360</v>
       </c>
       <c r="B340" s="20"/>
@@ -9271,8 +9289,8 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="60">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="23">
         <v>40391</v>
       </c>
       <c r="B341" s="20"/>
@@ -9291,8 +9309,8 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="60">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="23">
         <v>40422</v>
       </c>
       <c r="B342" s="20"/>
@@ -9311,8 +9329,8 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="60">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="23">
         <v>40452</v>
       </c>
       <c r="B343" s="20"/>
@@ -9331,8 +9349,8 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="60">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="23">
         <v>40483</v>
       </c>
       <c r="B344" s="20"/>
@@ -9351,15 +9369,19 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="60">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="23">
         <v>40513</v>
       </c>
-      <c r="B345" s="20"/>
+      <c r="B345" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C345" s="13">
         <v>1.25</v>
       </c>
-      <c r="D345" s="39"/>
+      <c r="D345" s="39">
+        <v>5</v>
+      </c>
       <c r="E345" s="34"/>
       <c r="F345" s="20"/>
       <c r="G345" s="13">
@@ -9371,7 +9393,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="47" t="s">
         <v>95</v>
       </c>
@@ -9389,8 +9411,8 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="60">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="23">
         <v>40544</v>
       </c>
       <c r="B347" s="20"/>
@@ -9409,8 +9431,8 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="60">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="23">
         <v>40575</v>
       </c>
       <c r="B348" s="20"/>
@@ -9429,8 +9451,8 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="60">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="23">
         <v>40603</v>
       </c>
       <c r="B349" s="20"/>
@@ -9449,8 +9471,8 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="60">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="23">
         <v>40634</v>
       </c>
       <c r="B350" s="20"/>
@@ -9469,8 +9491,8 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="60">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="23">
         <v>40664</v>
       </c>
       <c r="B351" s="20"/>
@@ -9489,8 +9511,8 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="60">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="23">
         <v>40695</v>
       </c>
       <c r="B352" s="20"/>
@@ -9509,8 +9531,8 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="60">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="23">
         <v>40725</v>
       </c>
       <c r="B353" s="20"/>
@@ -9529,8 +9551,8 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="60">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="23">
         <v>40756</v>
       </c>
       <c r="B354" s="20"/>
@@ -9549,8 +9571,8 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="60">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="23">
         <v>40787</v>
       </c>
       <c r="B355" s="20"/>
@@ -9569,8 +9591,8 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="60">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="23">
         <v>40817</v>
       </c>
       <c r="B356" s="20"/>
@@ -9589,8 +9611,8 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="60">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="23">
         <v>40848</v>
       </c>
       <c r="B357" s="20"/>
@@ -9609,15 +9631,19 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="60">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="23">
         <v>40878</v>
       </c>
-      <c r="B358" s="20"/>
+      <c r="B358" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C358" s="13">
         <v>1.25</v>
       </c>
-      <c r="D358" s="39"/>
+      <c r="D358" s="39">
+        <v>5</v>
+      </c>
       <c r="E358" s="34"/>
       <c r="F358" s="20"/>
       <c r="G358" s="13">
@@ -9629,7 +9655,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="47" t="s">
         <v>96</v>
       </c>
@@ -9647,8 +9673,8 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="60">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="23">
         <v>40909</v>
       </c>
       <c r="B360" s="20"/>
@@ -9667,8 +9693,8 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="60">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="23">
         <v>40940</v>
       </c>
       <c r="B361" s="20"/>
@@ -9687,8 +9713,8 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="60">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="23">
         <v>40969</v>
       </c>
       <c r="B362" s="20"/>
@@ -9707,8 +9733,8 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="60">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="23">
         <v>41000</v>
       </c>
       <c r="B363" s="20"/>
@@ -9727,8 +9753,8 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="60">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="23">
         <v>41030</v>
       </c>
       <c r="B364" s="20"/>
@@ -9747,8 +9773,8 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="60">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="23">
         <v>41061</v>
       </c>
       <c r="B365" s="20"/>
@@ -9767,8 +9793,8 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="60">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="23">
         <v>41091</v>
       </c>
       <c r="B366" s="20"/>
@@ -9787,8 +9813,8 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="60">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="23">
         <v>41122</v>
       </c>
       <c r="B367" s="20"/>
@@ -9807,8 +9833,8 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="60">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="23">
         <v>41153</v>
       </c>
       <c r="B368" s="20"/>
@@ -9827,8 +9853,8 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="60">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="23">
         <v>41183</v>
       </c>
       <c r="B369" s="20"/>
@@ -9847,8 +9873,8 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" s="60">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="23">
         <v>41214</v>
       </c>
       <c r="B370" s="20"/>
@@ -9867,15 +9893,19 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="60">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="23">
         <v>41244</v>
       </c>
-      <c r="B371" s="20"/>
+      <c r="B371" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C371" s="13">
         <v>1.25</v>
       </c>
-      <c r="D371" s="39"/>
+      <c r="D371" s="39">
+        <v>5</v>
+      </c>
       <c r="E371" s="34"/>
       <c r="F371" s="20"/>
       <c r="G371" s="13">
@@ -9887,7 +9917,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="47" t="s">
         <v>97</v>
       </c>
@@ -9905,8 +9935,8 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" s="60">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="23">
         <v>41275</v>
       </c>
       <c r="B373" s="20"/>
@@ -9925,8 +9955,8 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="60">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="23">
         <v>41306</v>
       </c>
       <c r="B374" s="20"/>
@@ -9945,8 +9975,8 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="60">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="23">
         <v>41334</v>
       </c>
       <c r="B375" s="20"/>
@@ -9965,8 +9995,8 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="60">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="23">
         <v>41365</v>
       </c>
       <c r="B376" s="20"/>
@@ -9985,8 +10015,8 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="60">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="23">
         <v>41395</v>
       </c>
       <c r="B377" s="20"/>
@@ -10005,8 +10035,8 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="60">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" s="23">
         <v>41426</v>
       </c>
       <c r="B378" s="20"/>
@@ -10025,8 +10055,8 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="60">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="23">
         <v>41456</v>
       </c>
       <c r="B379" s="20"/>
@@ -10045,8 +10075,8 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="60">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="23">
         <v>41487</v>
       </c>
       <c r="B380" s="20"/>
@@ -10065,8 +10095,8 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="60">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="23">
         <v>41518</v>
       </c>
       <c r="B381" s="20"/>
@@ -10085,8 +10115,8 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="60">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="23">
         <v>41548</v>
       </c>
       <c r="B382" s="20"/>
@@ -10105,8 +10135,8 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="60">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="23">
         <v>41579</v>
       </c>
       <c r="B383" s="20"/>
@@ -10125,15 +10155,19 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="60">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="23">
         <v>41609</v>
       </c>
-      <c r="B384" s="20"/>
+      <c r="B384" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C384" s="13">
         <v>1.25</v>
       </c>
-      <c r="D384" s="39"/>
+      <c r="D384" s="39">
+        <v>5</v>
+      </c>
       <c r="E384" s="34"/>
       <c r="F384" s="20"/>
       <c r="G384" s="13">
@@ -10145,7 +10179,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="47" t="s">
         <v>98</v>
       </c>
@@ -10163,8 +10197,8 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="60">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" s="23">
         <v>41640</v>
       </c>
       <c r="B386" s="20"/>
@@ -10183,8 +10217,8 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="60">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" s="23">
         <v>41671</v>
       </c>
       <c r="B387" s="20"/>
@@ -10203,8 +10237,8 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="60">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" s="23">
         <v>41699</v>
       </c>
       <c r="B388" s="20"/>
@@ -10223,8 +10257,8 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="60">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A389" s="23">
         <v>41730</v>
       </c>
       <c r="B389" s="20"/>
@@ -10243,8 +10277,8 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="60">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" s="23">
         <v>41760</v>
       </c>
       <c r="B390" s="20"/>
@@ -10263,8 +10297,8 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="60">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" s="23">
         <v>41791</v>
       </c>
       <c r="B391" s="20"/>
@@ -10283,8 +10317,8 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="60">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" s="23">
         <v>41821</v>
       </c>
       <c r="B392" s="20"/>
@@ -10303,8 +10337,8 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="60">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393" s="23">
         <v>41852</v>
       </c>
       <c r="B393" s="20"/>
@@ -10323,8 +10357,8 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="60">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A394" s="23">
         <v>41883</v>
       </c>
       <c r="B394" s="20"/>
@@ -10343,8 +10377,8 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="60">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A395" s="23">
         <v>41913</v>
       </c>
       <c r="B395" s="20"/>
@@ -10363,8 +10397,8 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="60">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396" s="23">
         <v>41944</v>
       </c>
       <c r="B396" s="20"/>
@@ -10383,15 +10417,19 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="60">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A397" s="23">
         <v>41974</v>
       </c>
-      <c r="B397" s="20"/>
+      <c r="B397" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C397" s="13">
         <v>1.25</v>
       </c>
-      <c r="D397" s="39"/>
+      <c r="D397" s="39">
+        <v>5</v>
+      </c>
       <c r="E397" s="34"/>
       <c r="F397" s="20"/>
       <c r="G397" s="13">
@@ -10403,7 +10441,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="47" t="s">
         <v>99</v>
       </c>
@@ -10421,8 +10459,8 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="60">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A399" s="23">
         <v>42005</v>
       </c>
       <c r="B399" s="20"/>
@@ -10441,8 +10479,8 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="60">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A400" s="23">
         <v>42036</v>
       </c>
       <c r="B400" s="20"/>
@@ -10461,8 +10499,8 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="60">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A401" s="23">
         <v>42064</v>
       </c>
       <c r="B401" s="20"/>
@@ -10481,8 +10519,8 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="60">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A402" s="23">
         <v>42095</v>
       </c>
       <c r="B402" s="20"/>
@@ -10501,8 +10539,8 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="60">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A403" s="23">
         <v>42125</v>
       </c>
       <c r="B403" s="20"/>
@@ -10521,8 +10559,8 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="60">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A404" s="23">
         <v>42156</v>
       </c>
       <c r="B404" s="20"/>
@@ -10541,8 +10579,8 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="60">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A405" s="23">
         <v>42186</v>
       </c>
       <c r="B405" s="20"/>
@@ -10561,8 +10599,8 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="60">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A406" s="23">
         <v>42217</v>
       </c>
       <c r="B406" s="20"/>
@@ -10581,8 +10619,8 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="60">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A407" s="23">
         <v>42248</v>
       </c>
       <c r="B407" s="20"/>
@@ -10601,8 +10639,8 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="60">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408" s="23">
         <v>42278</v>
       </c>
       <c r="B408" s="20"/>
@@ -10621,8 +10659,8 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="60">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409" s="23">
         <v>42309</v>
       </c>
       <c r="B409" s="20"/>
@@ -10641,15 +10679,19 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="60">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" s="23">
         <v>42339</v>
       </c>
-      <c r="B410" s="20"/>
+      <c r="B410" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C410" s="13">
         <v>1.25</v>
       </c>
-      <c r="D410" s="39"/>
+      <c r="D410" s="39">
+        <v>5</v>
+      </c>
       <c r="E410" s="34"/>
       <c r="F410" s="20"/>
       <c r="G410" s="13">
@@ -10661,7 +10703,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="47" t="s">
         <v>100</v>
       </c>
@@ -10679,8 +10721,8 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="60">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="23">
         <v>42370</v>
       </c>
       <c r="B412" s="20"/>
@@ -10699,8 +10741,8 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="60">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A413" s="23">
         <v>42401</v>
       </c>
       <c r="B413" s="20"/>
@@ -10719,8 +10761,8 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="60">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" s="23">
         <v>42430</v>
       </c>
       <c r="B414" s="20"/>
@@ -10739,8 +10781,8 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="60">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="23">
         <v>42461</v>
       </c>
       <c r="B415" s="20"/>
@@ -10759,8 +10801,8 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="60">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="23">
         <v>42491</v>
       </c>
       <c r="B416" s="20"/>
@@ -10779,8 +10821,8 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="60">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="23">
         <v>42522</v>
       </c>
       <c r="B417" s="20"/>
@@ -10799,8 +10841,8 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="60">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="23">
         <v>42552</v>
       </c>
       <c r="B418" s="20"/>
@@ -10819,8 +10861,8 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="60">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="23">
         <v>42583</v>
       </c>
       <c r="B419" s="20"/>
@@ -10839,8 +10881,8 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="60">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="23">
         <v>42614</v>
       </c>
       <c r="B420" s="20"/>
@@ -10859,8 +10901,8 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="60">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="23">
         <v>42644</v>
       </c>
       <c r="B421" s="20"/>
@@ -10879,8 +10921,8 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="60">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="23">
         <v>42675</v>
       </c>
       <c r="B422" s="20"/>
@@ -10899,15 +10941,19 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="60">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="23">
         <v>42705</v>
       </c>
-      <c r="B423" s="20"/>
+      <c r="B423" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C423" s="13">
         <v>1.25</v>
       </c>
-      <c r="D423" s="39"/>
+      <c r="D423" s="39">
+        <v>5</v>
+      </c>
       <c r="E423" s="34"/>
       <c r="F423" s="20"/>
       <c r="G423" s="13">
@@ -10919,7 +10965,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="47" t="s">
         <v>101</v>
       </c>
@@ -10937,8 +10983,8 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="60">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="23">
         <v>42736</v>
       </c>
       <c r="B425" s="20"/>
@@ -10957,8 +11003,8 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="60">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" s="23">
         <v>42767</v>
       </c>
       <c r="B426" s="20"/>
@@ -10977,8 +11023,8 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="60">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" s="23">
         <v>42795</v>
       </c>
       <c r="B427" s="20"/>
@@ -10997,8 +11043,8 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="60">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="23">
         <v>42826</v>
       </c>
       <c r="B428" s="20"/>
@@ -11017,8 +11063,8 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="60">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" s="23">
         <v>42856</v>
       </c>
       <c r="B429" s="20"/>
@@ -11037,8 +11083,8 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="60">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" s="23">
         <v>42887</v>
       </c>
       <c r="B430" s="20"/>
@@ -11057,8 +11103,8 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="60">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" s="23">
         <v>42917</v>
       </c>
       <c r="B431" s="20"/>
@@ -11077,8 +11123,8 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="60">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" s="23">
         <v>42948</v>
       </c>
       <c r="B432" s="20"/>
@@ -11097,8 +11143,8 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="60">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433" s="23">
         <v>42979</v>
       </c>
       <c r="B433" s="20"/>
@@ -11117,8 +11163,8 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="60">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A434" s="23">
         <v>43009</v>
       </c>
       <c r="B434" s="20"/>
@@ -11137,8 +11183,8 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="60">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A435" s="23">
         <v>43040</v>
       </c>
       <c r="B435" s="20"/>
@@ -11157,15 +11203,19 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="60">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A436" s="23">
         <v>43070</v>
       </c>
-      <c r="B436" s="20"/>
+      <c r="B436" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C436" s="13">
         <v>1.25</v>
       </c>
-      <c r="D436" s="39"/>
+      <c r="D436" s="39">
+        <v>5</v>
+      </c>
       <c r="E436" s="34"/>
       <c r="F436" s="20"/>
       <c r="G436" s="13">
@@ -11177,7 +11227,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="47" t="s">
         <v>44</v>
       </c>
@@ -11195,7 +11245,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43101</v>
       </c>
@@ -11215,7 +11265,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>43132</v>
       </c>
@@ -11235,7 +11285,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43160</v>
       </c>
@@ -11259,7 +11309,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>43191</v>
       </c>
@@ -11279,7 +11329,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>43221</v>
       </c>
@@ -11299,7 +11349,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43252</v>
       </c>
@@ -11319,7 +11369,7 @@
       <c r="J443" s="12"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43282</v>
       </c>
@@ -11343,7 +11393,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43313</v>
       </c>
@@ -11369,7 +11419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43344</v>
       </c>
@@ -11389,7 +11439,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>43374</v>
       </c>
@@ -11415,7 +11465,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>45</v>
@@ -11432,7 +11482,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>49</v>
@@ -11451,7 +11501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>43405</v>
       </c>
@@ -11477,7 +11527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>43435</v>
       </c>
@@ -11503,7 +11553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>48</v>
@@ -11522,7 +11572,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="47" t="s">
         <v>46</v>
       </c>
@@ -11540,7 +11590,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43466</v>
       </c>
@@ -11564,7 +11614,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43497</v>
       </c>
@@ -11590,7 +11640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>43525</v>
       </c>
@@ -11610,7 +11660,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43556</v>
       </c>
@@ -11630,7 +11680,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43586</v>
       </c>
@@ -11656,7 +11706,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>48</v>
@@ -11675,7 +11725,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43617</v>
       </c>
@@ -11695,7 +11745,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>43647</v>
       </c>
@@ -11715,7 +11765,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>43678</v>
       </c>
@@ -11739,7 +11789,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43709</v>
       </c>
@@ -11765,7 +11815,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>47</v>
@@ -11784,7 +11834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>48</v>
@@ -11803,7 +11853,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>43739</v>
       </c>
@@ -11829,7 +11879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43770</v>
       </c>
@@ -11855,7 +11905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43800</v>
       </c>
@@ -11881,7 +11931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="47" t="s">
         <v>60</v>
       </c>
@@ -11899,7 +11949,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43831</v>
       </c>
@@ -11923,7 +11973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>62</v>
@@ -11940,7 +11990,7 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43862</v>
       </c>
@@ -11960,7 +12010,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43891</v>
       </c>
@@ -11982,7 +12032,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43922</v>
       </c>
@@ -12002,7 +12052,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43952</v>
       </c>
@@ -12022,7 +12072,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43983</v>
       </c>
@@ -12042,7 +12092,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44013</v>
       </c>
@@ -12068,7 +12118,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -12087,7 +12137,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -12106,7 +12156,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44044</v>
       </c>
@@ -12126,7 +12176,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44075</v>
       </c>
@@ -12146,7 +12196,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44105</v>
       </c>
@@ -12166,7 +12216,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44136</v>
       </c>
@@ -12186,7 +12236,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44166</v>
       </c>
@@ -12210,7 +12260,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="47" t="s">
         <v>65</v>
       </c>
@@ -12228,7 +12278,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44197</v>
       </c>
@@ -12248,7 +12298,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44228</v>
       </c>
@@ -12268,7 +12318,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44256</v>
       </c>
@@ -12288,7 +12338,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44287</v>
       </c>
@@ -12308,7 +12358,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44317</v>
       </c>
@@ -12328,7 +12378,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44348</v>
       </c>
@@ -12348,7 +12398,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44378</v>
       </c>
@@ -12368,7 +12418,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44409</v>
       </c>
@@ -12388,7 +12438,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44440</v>
       </c>
@@ -12408,7 +12458,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44470</v>
       </c>
@@ -12428,7 +12478,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44501</v>
       </c>
@@ -12448,7 +12498,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44531</v>
       </c>
@@ -12474,7 +12524,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>67</v>
@@ -12494,7 +12544,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="47" t="s">
         <v>69</v>
       </c>
@@ -12512,7 +12562,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44562</v>
       </c>
@@ -12532,7 +12582,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>44593</v>
       </c>
@@ -12552,7 +12602,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44621</v>
       </c>
@@ -12572,7 +12622,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44652</v>
       </c>
@@ -12596,7 +12646,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>44682</v>
       </c>
@@ -12616,7 +12666,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>44713</v>
       </c>
@@ -12642,7 +12692,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>45</v>
@@ -12659,7 +12709,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>44743</v>
       </c>
@@ -12685,7 +12735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44774</v>
       </c>
@@ -12711,7 +12761,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>70</v>
@@ -12730,7 +12780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>48</v>
@@ -12752,7 +12802,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44805</v>
       </c>
@@ -12778,7 +12828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44835</v>
       </c>
@@ -12804,7 +12854,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>74</v>
@@ -12826,7 +12876,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>47</v>
@@ -12848,7 +12898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44866</v>
       </c>
@@ -12874,7 +12924,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44896</v>
       </c>
@@ -12894,7 +12944,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="47" t="s">
         <v>77</v>
       </c>
@@ -12912,7 +12962,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44927</v>
       </c>
@@ -12932,7 +12982,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44958</v>
       </c>
@@ -12956,7 +13006,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44986</v>
       </c>
@@ -12980,7 +13030,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>45017</v>
       </c>
@@ -13000,7 +13050,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>45047</v>
       </c>
@@ -13024,7 +13074,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>45078</v>
       </c>
@@ -13042,7 +13092,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>45108</v>
       </c>
@@ -13060,7 +13110,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>45139</v>
       </c>
@@ -13078,7 +13128,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>45170</v>
       </c>
@@ -13096,7 +13146,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>45200</v>
       </c>
@@ -13114,7 +13164,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>45231</v>
       </c>
@@ -13132,7 +13182,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>45261</v>
       </c>
@@ -13150,7 +13200,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13166,7 +13216,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13182,7 +13232,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13198,7 +13248,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13214,7 +13264,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13230,7 +13280,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13246,7 +13296,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13262,7 +13312,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13278,7 +13328,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13294,7 +13344,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13310,7 +13360,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13326,7 +13376,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13342,7 +13392,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13358,7 +13408,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13374,7 +13424,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13390,7 +13440,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13406,7 +13456,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13422,7 +13472,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13438,7 +13488,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13454,7 +13504,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13470,7 +13520,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13486,7 +13536,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13502,7 +13552,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13518,7 +13568,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13534,7 +13584,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13550,7 +13600,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -13566,7 +13616,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -13582,7 +13632,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -13598,7 +13648,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -13614,7 +13664,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -13630,7 +13680,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -13646,7 +13696,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -13662,7 +13712,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -13678,7 +13728,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -13694,7 +13744,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -13710,7 +13760,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -13726,7 +13776,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -13742,7 +13792,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -13758,7 +13808,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -13774,7 +13824,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -13790,7 +13840,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -13806,7 +13856,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -13822,7 +13872,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="15"/>
       <c r="C572" s="41"/>
@@ -13853,10 +13903,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13879,28 +13929,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -13913,7 +13963,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13942,7 +13992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>11.058</v>
       </c>
@@ -13972,17 +14022,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>239</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14003,7 +14056,11 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>583.11400000000003</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14030,7 +14087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14056,7 +14113,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14082,7 +14139,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14108,7 +14165,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14134,7 +14191,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14160,7 +14217,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14186,7 +14243,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14212,7 +14269,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14232,7 +14289,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14252,7 +14309,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14272,7 +14329,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14293,7 +14350,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14314,7 +14371,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14335,7 +14392,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14356,7 +14413,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14377,7 +14434,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14398,7 +14455,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14419,7 +14476,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14440,7 +14497,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14461,7 +14518,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14482,7 +14539,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14503,7 +14560,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14524,7 +14581,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14545,7 +14602,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14566,7 +14623,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14587,7 +14644,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14608,7 +14665,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14629,7 +14686,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14650,7 +14707,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14671,7 +14728,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14692,7 +14749,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14701,7 +14758,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14710,7 +14767,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14719,7 +14776,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14728,7 +14785,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14737,7 +14794,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14746,7 +14803,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14755,7 +14812,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14764,7 +14821,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14773,7 +14830,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14782,7 +14839,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14791,7 +14848,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14800,7 +14857,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14809,7 +14866,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14818,7 +14875,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14827,7 +14884,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14836,7 +14893,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14845,7 +14902,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14854,7 +14911,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14863,7 +14920,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14872,7 +14929,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14881,7 +14938,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14890,7 +14947,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14899,7 +14956,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14908,7 +14965,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14917,7 +14974,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14926,7 +14983,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14935,7 +14992,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14944,7 +15001,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14953,7 +15010,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
